--- a/Cricket-Auction-App/auction_results.xlsx
+++ b/Cricket-Auction-App/auction_results.xlsx
@@ -8,7 +8,13 @@
   </bookViews>
   <sheets>
     <sheet name="Results" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="aaaa" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="madhu" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="purna" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="subhajit" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="ROBIN" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="nilanjan" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="tufan" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="subhradip" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,53 +474,1327 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>55</v>
+        <v>4</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t xml:space="preserve">BAPPA DAS </t>
+          <t>Jishu Das</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>UNSOLD</t>
+          <t>purna</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-09-01 21:39:52</t>
+          <t>2025-09-02 17:44:22</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
+        <v>15</v>
+      </c>
+      <c r="B3" t="n">
+        <v>78</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Soubhagya Adhikari </t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>madhu</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>100</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2025-09-02 17:45:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>16</v>
+      </c>
+      <c r="B4" t="n">
+        <v>22</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Rohit Middya</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>subhajit</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>100</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2025-09-02 17:46:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>17</v>
+      </c>
+      <c r="B5" t="n">
+        <v>67</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SOUMEN MANDAL </t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>nilanjan</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>55</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2025-09-02 17:48:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>18</v>
+      </c>
+      <c r="B6" t="n">
+        <v>21</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tanmoy Mondal </t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>madhu</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>80</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2025-09-02 17:49:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>19</v>
+      </c>
+      <c r="B7" t="n">
+        <v>15</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Koushik mandal </t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>ROBIN</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>120</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2025-09-02 17:50:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>20</v>
+      </c>
+      <c r="B8" t="n">
+        <v>16</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Koushik Saha</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>nilanjan</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>120</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2025-09-02 17:51:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>21</v>
+      </c>
+      <c r="B9" t="n">
+        <v>52</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Subrata patra</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>nilanjan</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>110</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2025-09-02 17:52:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>22</v>
+      </c>
+      <c r="B10" t="n">
+        <v>5</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ARUP KUMAR MAHATHA </t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>ROBIN</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>20</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2025-09-02 17:52:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>23</v>
+      </c>
+      <c r="B11" t="n">
+        <v>97</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Sukanta Hembram</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>tufan</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>120</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2025-09-02 17:53:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>24</v>
+      </c>
+      <c r="B12" t="n">
+        <v>96</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Upahar Mahata </t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>ROBIN</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>75</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2025-09-02 17:54:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>25</v>
+      </c>
+      <c r="B13" t="n">
+        <v>14</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Yash Verma </t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>subhradip</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>160</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2025-09-02 17:56:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>26</v>
+      </c>
+      <c r="B14" t="n">
         <v>12</v>
       </c>
-      <c r="B3" t="n">
+      <c r="C14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ankit Pal </t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>UNSOLD</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2025-09-02 17:56:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>27</v>
+      </c>
+      <c r="B15" t="n">
+        <v>50</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Bishnu Mukherjee</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>ROBIN</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>80</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2025-09-02 17:58:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>28</v>
+      </c>
+      <c r="B16" t="n">
+        <v>113</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Partha Sarathi Maji </t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>tufan</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>210</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2025-09-02 17:59:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>29</v>
+      </c>
+      <c r="B17" t="n">
+        <v>99</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Asit Kumar Mahato </t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>ROBIN</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>180</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2025-09-02 18:00:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>30</v>
+      </c>
+      <c r="B18" t="n">
+        <v>86</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sayantan Biswas </t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>subhajit</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>130</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2025-09-02 18:01:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>31</v>
+      </c>
+      <c r="B19" t="n">
+        <v>98</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Tufan Mondal</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>nilanjan</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>95</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2025-09-02 18:02:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>32</v>
+      </c>
+      <c r="B20" t="n">
+        <v>85</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bisweswar Mahato </t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>tufan</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>75</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2025-09-02 18:03:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>33</v>
+      </c>
+      <c r="B21" t="n">
+        <v>104</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Suman Mahato </t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>madhu</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>200</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2025-09-02 18:04:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>34</v>
+      </c>
+      <c r="B22" t="n">
+        <v>76</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">KUNTAL MONDAL </t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>subhajit</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>75</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2025-09-02 18:05:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>35</v>
+      </c>
+      <c r="B23" t="n">
+        <v>2</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SK EMDAD HOSSEN </t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>subhradip</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>140</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2025-09-02 18:06:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>36</v>
+      </c>
+      <c r="B24" t="n">
+        <v>109</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Suroj Hansda</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>purna</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>60</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2025-09-02 18:07:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>37</v>
+      </c>
+      <c r="B25" t="n">
+        <v>41</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Ambuj Mahato</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>madhu</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>100</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2025-09-02 18:08:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>38</v>
+      </c>
+      <c r="B26" t="n">
+        <v>17</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Rajesh Kundu</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>madhu</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>500</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2025-09-02 18:09:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>39</v>
+      </c>
+      <c r="B27" t="n">
+        <v>90</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>DEBJIT BISWAS</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>subhradip</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>110</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2025-09-02 18:10:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>40</v>
+      </c>
+      <c r="B28" t="n">
+        <v>101</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hiranmoy Singha Mahata </t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>subhajit</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>60</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2025-09-02 18:11:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>41</v>
+      </c>
+      <c r="B29" t="n">
+        <v>114</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>NITAI MONDAL</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>ROBIN</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>80</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2025-09-02 18:12:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>42</v>
+      </c>
+      <c r="B30" t="n">
+        <v>75</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Amit Das </t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>tufan</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>55</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2025-09-02 18:12:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>43</v>
+      </c>
+      <c r="B31" t="n">
+        <v>20</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RAHUL KARMAKAR </t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>nilanjan</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>360</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2025-09-02 18:13:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>44</v>
+      </c>
+      <c r="B32" t="n">
+        <v>126</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>CHIRU</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>ROBIN</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>70</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2025-09-02 18:14:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>45</v>
+      </c>
+      <c r="B33" t="n">
+        <v>80</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bipranath Panday </t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>subhradip</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>65</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2025-09-02 18:16:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>46</v>
+      </c>
+      <c r="B34" t="n">
+        <v>44</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dibyendu Patra </t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>ROBIN</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>100</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2025-09-02 18:17:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>47</v>
+      </c>
+      <c r="B35" t="n">
+        <v>57</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Somenath Dutta </t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>subhradip</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>80</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2025-09-02 18:18:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>48</v>
+      </c>
+      <c r="B36" t="n">
+        <v>58</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dibakar Roy </t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>subhradip</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>100</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2025-09-02 18:19:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>49</v>
+      </c>
+      <c r="B37" t="n">
+        <v>122</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Alexa</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>purna</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>85</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2025-09-02 18:20:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>50</v>
+      </c>
+      <c r="B38" t="n">
+        <v>28</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chandan yadav </t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>subhajit</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>150</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2025-09-02 18:20:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>51</v>
+      </c>
+      <c r="B39" t="n">
+        <v>111</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Abhay Mandal </t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>subhradip</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>80</v>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2025-09-02 18:21:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>52</v>
+      </c>
+      <c r="B40" t="n">
+        <v>62</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>MRINAL MONDAL</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>ROBIN</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>70</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2025-09-02 18:23:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>53</v>
+      </c>
+      <c r="B41" t="n">
+        <v>11</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SUVAJIT DE </t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>nilanjan</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>200</v>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2025-09-02 18:24:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>54</v>
+      </c>
+      <c r="B42" t="n">
+        <v>83</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>MRIGANKA MAHATO</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>subhajit</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>120</v>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2025-09-02 18:25:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>55</v>
+      </c>
+      <c r="B43" t="n">
+        <v>24</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">JIT LAYEK </t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>tufan</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>70</v>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2025-09-02 18:26:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>56</v>
+      </c>
+      <c r="B44" t="n">
         <v>108</v>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C44" t="inlineStr">
         <is>
           <t xml:space="preserve">Md Niyaj Ahamed </t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>aaaa</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>25</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2025-09-01 21:40:40</t>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>ROBIN</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>70</v>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2025-09-02 18:28:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>57</v>
+      </c>
+      <c r="B45" t="n">
+        <v>8</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ramkrishna Rewani </t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>purna</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>80</v>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2025-09-02 18:29:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>58</v>
+      </c>
+      <c r="B46" t="n">
+        <v>68</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Akash Mahato </t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>ROBIN</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>65</v>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2025-09-02 18:30:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>59</v>
+      </c>
+      <c r="B47" t="n">
+        <v>18</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SOUMYADEEP PATRA </t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>subhradip</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>70</v>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2025-09-02 18:31:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>60</v>
+      </c>
+      <c r="B48" t="n">
+        <v>81</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Abhijit Singh</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>subhajit</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>55</v>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2025-09-02 18:32:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>61</v>
+      </c>
+      <c r="B49" t="n">
+        <v>119</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Apurba Kumar </t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>tufan</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>80</v>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2025-09-02 18:33:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>62</v>
+      </c>
+      <c r="B50" t="n">
+        <v>42</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Anjan Shyamal</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>purna</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>65</v>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2025-09-02 18:34:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>63</v>
+      </c>
+      <c r="B51" t="n">
+        <v>70</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rahul Chattaraj </t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>purna</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>65</v>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2025-09-02 18:35:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>64</v>
+      </c>
+      <c r="B52" t="n">
+        <v>56</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Tushar Mondal</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>nilanjan</t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>60</v>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2025-09-02 18:36:57</t>
         </is>
       </c>
     </row>
@@ -529,7 +1809,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -556,15 +1836,868 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Soubhagya Adhikari </t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>21</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tanmoy Mondal </t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>104</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Suman Mahato </t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>41</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Ambuj Mahato</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>17</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Rajesh Kundu</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>500</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Player ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>FULL NAME</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Price</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Jishu Das</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>109</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Suroj Hansda</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>122</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Alexa</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>8</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ramkrishna Rewani </t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>42</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Anjan Shyamal</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>70</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rahul Chattaraj </t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Player ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>FULL NAME</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Price</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Rohit Middya</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>86</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sayantan Biswas </t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>76</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">KUNTAL MONDAL </t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>101</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hiranmoy Singha Mahata </t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>28</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chandan yadav </t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>83</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>MRIGANKA MAHATO</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>81</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Abhijit Singh</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Player ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>FULL NAME</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Price</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Koushik mandal </t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>5</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ARUP KUMAR MAHATHA </t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>96</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Upahar Mahata </t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>50</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Bishnu Mukherjee</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>99</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Asit Kumar Mahato </t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>114</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>NITAI MONDAL</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>126</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>CHIRU</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>44</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dibyendu Patra </t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>62</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>MRINAL MONDAL</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
         <v>108</v>
       </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Md Niyaj Ahamed </t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>68</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Akash Mahato </t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Player ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>FULL NAME</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Price</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>67</v>
+      </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Md Niyaj Ahamed </t>
+          <t xml:space="preserve">SOUMEN MANDAL </t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>25</v>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>16</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Koushik Saha</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>52</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Subrata patra</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>98</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Tufan Mondal</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>20</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RAHUL KARMAKAR </t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>11</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SUVAJIT DE </t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>56</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Tushar Mondal</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Player ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>FULL NAME</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Price</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Sukanta Hembram</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>113</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Partha Sarathi Maji </t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>85</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bisweswar Mahato </t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>75</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Amit Das </t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>24</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">JIT LAYEK </t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>119</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Apurba Kumar </t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>80</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Player ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>FULL NAME</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Price</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Yash Verma </t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SK EMDAD HOSSEN </t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>90</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>DEBJIT BISWAS</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>80</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bipranath Panday </t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>57</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Somenath Dutta </t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>58</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dibakar Roy </t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>111</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Abhay Mandal </t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>18</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SOUMYADEEP PATRA </t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/Cricket-Auction-App/auction_results.xlsx
+++ b/Cricket-Auction-App/auction_results.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Results" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="madhu" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="ROBIN" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="subhajit" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,19 +469,19 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="B2" t="n">
-        <v>125</v>
+        <v>3</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>SOURAV DAS</t>
+          <t>Shibam Chandra</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>ROBIN</t>
+          <t>UNSOLD</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -489,77 +489,77 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-09-02 21:11:19</t>
+          <t>2025-09-02 22:57:32</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="B3" t="n">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Rajesh Kundu</t>
+          <t xml:space="preserve">Somenath Dutta </t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>ROBIN</t>
+          <t>madhu</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-09-02 21:11:58</t>
+          <t>2025-09-02 22:57:51</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="B4" t="n">
-        <v>13</v>
+        <v>88</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Abhishek Debnath</t>
+          <t>Abdul kawsar Rahaman</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>ROBIN</t>
+          <t>UNSOLD</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-09-02 21:12:11</t>
+          <t>2025-09-02 22:58:02</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="B5" t="n">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>SOUMAJIT PRAMANIK</t>
+          <t xml:space="preserve">Hiranmoy Singha Mahata </t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>ROBIN</t>
+          <t>subhajit</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -567,215 +567,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-09-02 21:12:28</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>91</v>
-      </c>
-      <c r="B6" t="n">
-        <v>24</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">JIT LAYEK </t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>ROBIN</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>20</v>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2025-09-02 21:12:51</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>92</v>
-      </c>
-      <c r="B7" t="n">
-        <v>12</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ankit Pal </t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>ROBIN</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>20</v>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2025-09-02 21:13:06</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>93</v>
-      </c>
-      <c r="B8" t="n">
-        <v>102</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sudip Mayra </t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>ROBIN</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>20</v>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2025-09-02 21:13:20</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>94</v>
-      </c>
-      <c r="B9" t="n">
-        <v>105</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Saikat pradhan </t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>ROBIN</t>
-        </is>
-      </c>
-      <c r="E9" t="n">
-        <v>30</v>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2025-09-02 21:13:45</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>95</v>
-      </c>
-      <c r="B10" t="n">
-        <v>39</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ARUP KUMBHAKAR </t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>madhu</t>
-        </is>
-      </c>
-      <c r="E10" t="n">
-        <v>20</v>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2025-09-02 21:24:18</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>96</v>
-      </c>
-      <c r="B11" t="n">
-        <v>84</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Arnab Ghosh</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>madhu</t>
-        </is>
-      </c>
-      <c r="E11" t="n">
-        <v>20</v>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>2025-09-02 21:24:27</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>97</v>
-      </c>
-      <c r="B12" t="n">
-        <v>43</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Biswajit Dutta</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>madhu</t>
-        </is>
-      </c>
-      <c r="E12" t="n">
-        <v>20</v>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>2025-09-02 21:24:38</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>98</v>
-      </c>
-      <c r="B13" t="n">
-        <v>113</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Partha Sarathi Maji </t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>madhu</t>
-        </is>
-      </c>
-      <c r="E13" t="n">
-        <v>20</v>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>2025-09-02 21:24:52</t>
+          <t>2025-09-02 23:00:28</t>
         </is>
       </c>
     </row>
@@ -790,7 +582,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -817,53 +609,14 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t xml:space="preserve">ARUP KUMBHAKAR </t>
+          <t xml:space="preserve">Somenath Dutta </t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>84</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Arnab Ghosh</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>43</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Biswajit Dutta</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>113</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Partha Sarathi Maji </t>
-        </is>
-      </c>
-      <c r="C5" t="n">
         <v>20</v>
       </c>
     </row>
@@ -878,7 +631,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -905,106 +658,15 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>125</v>
+        <v>101</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SOURAV DAS</t>
+          <t xml:space="preserve">Hiranmoy Singha Mahata </t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>20</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>17</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Rajesh Kundu</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>13</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Abhishek Debnath</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>87</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>SOUMAJIT PRAMANIK</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>24</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">JIT LAYEK </t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>12</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ankit Pal </t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>102</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sudip Mayra </t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>105</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Saikat pradhan </t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/Cricket-Auction-App/auction_results.xlsx
+++ b/Cricket-Auction-App/auction_results.xlsx
@@ -9,7 +9,6 @@
   <sheets>
     <sheet name="Results" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="madhu" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="subhajit" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -469,40 +468,40 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>106</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Shibam Chandra</t>
+          <t xml:space="preserve">Rittik Rahaman </t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>UNSOLD</t>
+          <t>madhu</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>20</v>
+        <v>500</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-09-02 22:57:32</t>
+          <t>2025-09-02 23:10:48</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="B3" t="n">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Somenath Dutta </t>
+          <t xml:space="preserve">Chandan yadav </t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -511,63 +510,63 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>20</v>
+        <v>400</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-09-02 22:57:51</t>
+          <t>2025-09-02 23:11:07</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="B4" t="n">
-        <v>88</v>
+        <v>16</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Abdul kawsar Rahaman</t>
+          <t>Koushik Saha</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>UNSOLD</t>
+          <t>madhu</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-09-02 22:58:02</t>
+          <t>2025-09-02 23:16:52</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="B5" t="n">
-        <v>101</v>
+        <v>58</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hiranmoy Singha Mahata </t>
+          <t xml:space="preserve">Dibakar Roy </t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>subhajit</t>
+          <t>madhu</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-09-02 23:00:28</t>
+          <t>2025-09-02 23:17:12</t>
         </is>
       </c>
     </row>
@@ -582,7 +581,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -609,64 +608,54 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>57</v>
+        <v>106</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Somenath Dutta </t>
+          <t xml:space="preserve">Rittik Rahaman </t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>20</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Player ID</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>FULL NAME</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Price</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>101</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hiranmoy Singha Mahata </t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>20</v>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>28</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chandan yadav </t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>16</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Koushik Saha</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>58</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dibakar Roy </t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>200</v>
       </c>
     </row>
   </sheetData>

--- a/Cricket-Auction-App/auction_results.xlsx
+++ b/Cricket-Auction-App/auction_results.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,14 +468,14 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B2" t="n">
-        <v>106</v>
+        <v>70</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rittik Rahaman </t>
+          <t xml:space="preserve">Rahul Chattaraj </t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -484,24 +484,24 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>500</v>
+        <v>20</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-09-02 23:10:48</t>
+          <t>2025-09-02 23:37:51</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B3" t="n">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Chandan yadav </t>
+          <t xml:space="preserve">Abhradip Maji </t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -510,24 +510,24 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>400</v>
+        <v>20</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-09-02 23:11:07</t>
+          <t>2025-09-02 23:38:30</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B4" t="n">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Koushik Saha</t>
+          <t xml:space="preserve">Debojyoti Saha </t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -536,24 +536,24 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-09-02 23:16:52</t>
+          <t>2025-09-02 23:38:38</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B5" t="n">
-        <v>58</v>
+        <v>112</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dibakar Roy </t>
+          <t xml:space="preserve">SAGEN MURMU </t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -562,11 +562,349 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-09-02 23:17:12</t>
+          <t>2025-09-02 23:38:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>115</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anupam Ghosh </t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>madhu</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>20</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2025-09-02 23:39:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>116</v>
+      </c>
+      <c r="B7" t="n">
+        <v>82</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Biplab Senapati </t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>madhu</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>20</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2025-09-02 23:39:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>117</v>
+      </c>
+      <c r="B8" t="n">
+        <v>41</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Ambuj Mahato</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>madhu</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>20</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2025-09-02 23:39:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>118</v>
+      </c>
+      <c r="B9" t="n">
+        <v>94</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>ARKA DEY</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>madhu</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>20</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2025-09-02 23:39:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>119</v>
+      </c>
+      <c r="B10" t="n">
+        <v>83</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>MRIGANKA MAHATO</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>madhu</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>20</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2025-09-02 23:39:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>120</v>
+      </c>
+      <c r="B11" t="n">
+        <v>75</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Amit Das </t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>madhu</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>20</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2025-09-02 23:39:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>121</v>
+      </c>
+      <c r="B12" t="n">
+        <v>51</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">AMIT MUKHERJEE </t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>madhu</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>20</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2025-09-02 23:40:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>122</v>
+      </c>
+      <c r="B13" t="n">
+        <v>32</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Rahul Mahato</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>madhu</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>20</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2025-09-02 23:40:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>123</v>
+      </c>
+      <c r="B14" t="n">
+        <v>104</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Suman Mahato </t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>madhu</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>20</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2025-09-02 23:40:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>124</v>
+      </c>
+      <c r="B15" t="n">
+        <v>99</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Asit Kumar Mahato </t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>madhu</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>20</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2025-09-02 23:40:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>125</v>
+      </c>
+      <c r="B16" t="n">
+        <v>33</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anjan Kumar mandal </t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>madhu</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>20</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2025-09-02 23:47:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>126</v>
+      </c>
+      <c r="B17" t="n">
+        <v>37</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nadim Rijbi </t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>madhu</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>20</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2025-09-02 23:47:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>127</v>
+      </c>
+      <c r="B18" t="n">
+        <v>111</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Abhay Mandal </t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>madhu</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>20</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2025-09-02 23:47:51</t>
         </is>
       </c>
     </row>
@@ -581,7 +919,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -608,54 +946,223 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>106</v>
+        <v>70</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rittik Rahaman </t>
+          <t xml:space="preserve">Rahul Chattaraj </t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>500</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Chandan yadav </t>
+          <t xml:space="preserve">Abhradip Maji </t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>400</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Koushik Saha</t>
+          <t xml:space="preserve">Debojyoti Saha </t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>58</v>
+        <v>112</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dibakar Roy </t>
+          <t xml:space="preserve">SAGEN MURMU </t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>200</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anupam Ghosh </t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>82</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Biplab Senapati </t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>41</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Ambuj Mahato</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>94</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>ARKA DEY</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>83</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>MRIGANKA MAHATO</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>75</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Amit Das </t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>51</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">AMIT MUKHERJEE </t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>32</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Rahul Mahato</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>104</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Suman Mahato </t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>99</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Asit Kumar Mahato </t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>33</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anjan Kumar mandal </t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>37</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nadim Rijbi </t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>111</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Abhay Mandal </t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
